--- a/medicine/Psychotrope/Montepulciano_d'Abruzzo_Colline_Teramane/Montepulciano_d'Abruzzo_Colline_Teramane.xlsx
+++ b/medicine/Psychotrope/Montepulciano_d'Abruzzo_Colline_Teramane/Montepulciano_d'Abruzzo_Colline_Teramane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_Colline_Teramane</t>
+          <t>Montepulciano_d'Abruzzo_Colline_Teramane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Montepulciano d'Abruzzo Colline Teramane est un vin italien produit dans la région des Abruzzes et doté d'une appellation DOCG depuis le 20 février 2003. Seuls ont droit à la DOCG les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_Colline_Teramane</t>
+          <t>Montepulciano_d'Abruzzo_Colline_Teramane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Teramo dans les communes Ancarano, Atri, Basciano, Bellante, Campli, Canzano, Castellalto, Castiglione Messer Raimondo, Castilenti, Cellino Attanasio, Cermignano, Civitella del Tronto, Colonnella, Controguerra, Corropoli, Giulianova, Martinsicuro, Montorio al Vomano, Morro d'Oro, Mosciano Sant'Angelo, Nereto, Notaresco, Penna Sant'Andrea, Pineto, Roseto degli Abruzzi, Sant'Egidio alla Vibrata, Sant'Omero, Silvi, Teramo, Torano Nuovo, Tortoreto. 
 Les Colline Teramane sont une sous - zone du Montepulciano d'Abruzzo.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_Colline_Teramane</t>
+          <t>Montepulciano_d'Abruzzo_Colline_Teramane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis intensif  avec des reflets violet tendant vers un rouge grenat après vieillissement.
 odeur : parfum caractéristique, épicé, intense
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_Colline_Teramane</t>
+          <t>Montepulciano_d'Abruzzo_Colline_Teramane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_Colline_Teramane</t>
+          <t>Montepulciano_d'Abruzzo_Colline_Teramane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Gibier, bœuf braisé, agneau cuit au four à bois, fromages affinés.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_Colline_Teramane</t>
+          <t>Montepulciano_d'Abruzzo_Colline_Teramane</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
